--- a/Recharge/Febuary2021Recharge.xlsx
+++ b/Recharge/Febuary2021Recharge.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="175">
   <si>
     <t>S.No.</t>
   </si>
@@ -726,6 +726,9 @@
     <t>Shantnu Kr.</t>
   </si>
   <si>
+    <t>Munna Kr.</t>
+  </si>
+  <si>
     <t>Nitish Kr.</t>
   </si>
   <si>
@@ -778,9 +781,6 @@
   </si>
   <si>
     <t>9931812966/9572985032</t>
-  </si>
-  <si>
-    <t>Munna Kr.</t>
   </si>
   <si>
     <t>D.K.</t>
@@ -825,10 +825,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -848,30 +848,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -891,48 +891,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -955,7 +915,69 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,34 +991,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -1095,7 +1095,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,13 +1143,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +1197,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,13 +1251,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,127 +1269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,6 +1300,17 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1334,21 +1345,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1369,17 +1384,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1392,15 +1401,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1409,7 +1409,7 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1424,130 +1424,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1609,7 +1609,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1630,7 +1630,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1671,7 +1671,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5972,12 +5972,12 @@
   <sheetPr/>
   <dimension ref="A1:AM96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AD22" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AD16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF42" sqref="AF42"/>
+      <selection pane="bottomRight" activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7295,13 +7295,16 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="28" s="11" customFormat="1" spans="1:32">
+    <row r="28" s="11" customFormat="1" spans="1:34">
       <c r="A28" s="11">
         <v>26</v>
       </c>
       <c r="C28" s="11">
         <v>26</v>
       </c>
+      <c r="D28" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="E28" s="11">
         <v>9973040600</v>
       </c>
@@ -7313,7 +7316,7 @@
       </c>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>13500</v>
+        <v>14500</v>
       </c>
       <c r="K28" s="11">
         <v>1500</v>
@@ -7349,6 +7352,9 @@
         <v>1000</v>
       </c>
       <c r="AF28" s="20">
+        <v>1000</v>
+      </c>
+      <c r="AH28" s="20">
         <v>1000</v>
       </c>
     </row>
@@ -7424,13 +7430,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" s="11">
         <v>29</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>36</v>
@@ -7461,13 +7467,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C32" s="11">
         <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>36</v>
@@ -7561,13 +7567,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C34" s="11">
         <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F34" s="11" t="s">
         <v>51</v>
@@ -7739,13 +7745,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C39" s="11">
         <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>51</v>
@@ -7779,16 +7785,16 @@
         <v>38</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C40" s="11">
         <v>38</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>51</v>
@@ -7997,13 +8003,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C46" s="11">
         <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>64</v>
@@ -8077,13 +8083,13 @@
         <v>46</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C48" s="11">
         <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>64</v>
@@ -8107,13 +8113,13 @@
         <v>47</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C49" s="11">
         <v>47</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E49" s="11">
         <v>8863097933</v>
@@ -8161,13 +8167,13 @@
         <v>48</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C50" s="11">
         <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E50" s="11">
         <v>9835443096</v>
@@ -8207,13 +8213,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C51" s="11">
         <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>64</v>
@@ -8263,13 +8269,13 @@
         <v>51</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C53" s="11">
         <v>51</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>64</v>
@@ -8354,13 +8360,13 @@
         <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C55" s="11">
         <v>53</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>64</v>
@@ -8382,13 +8388,13 @@
         <v>54</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C56" s="11">
         <v>54</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>64</v>
@@ -8469,13 +8475,13 @@
         <v>57</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C59" s="11">
         <v>57</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>77</v>
@@ -8565,13 +8571,13 @@
         <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C62" s="11">
         <v>60</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E62" s="11">
         <v>9504958065</v>
@@ -8630,16 +8636,16 @@
         <v>62</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C64" s="11">
         <v>62</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>82</v>
@@ -8659,18 +8665,18 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="65" s="11" customFormat="1" spans="1:34">
+    <row r="65" s="11" customFormat="1" spans="1:31">
       <c r="A65" s="11">
         <v>63</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C65" s="11">
         <v>63</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E65" s="11">
         <v>7004399486</v>
@@ -8683,7 +8689,7 @@
       </c>
       <c r="H65" s="10">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="J65" s="19">
         <v>2000</v>
@@ -8697,9 +8703,6 @@
       <c r="AB65" s="1"/>
       <c r="AE65" s="20">
         <v>2000</v>
-      </c>
-      <c r="AH65" s="20">
-        <v>1000</v>
       </c>
     </row>
     <row r="66" s="11" customFormat="1" spans="1:29">
@@ -9602,8 +9605,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -10025,7 +10028,7 @@
       </c>
       <c r="D28" s="9">
         <f>Orders!F28-Collection!H28</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -10560,7 +10563,7 @@
       </c>
       <c r="D65" s="9">
         <f>Orders!F65-Collection!H65</f>
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
